--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H2">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>185.1516887274238</v>
+        <v>14.79746141238367</v>
       </c>
       <c r="R2">
-        <v>185.1516887274238</v>
+        <v>133.177152711453</v>
       </c>
       <c r="S2">
-        <v>0.004313845941712761</v>
+        <v>0.0002979702058105164</v>
       </c>
       <c r="T2">
-        <v>0.004313845941712761</v>
+        <v>0.0002979702058105164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H3">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J3">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>72.07067394847114</v>
+        <v>5.303038977559334</v>
       </c>
       <c r="R3">
-        <v>72.07067394847114</v>
+        <v>47.727350798034</v>
       </c>
       <c r="S3">
-        <v>0.001679173365719708</v>
+        <v>0.000106785047213717</v>
       </c>
       <c r="T3">
-        <v>0.001679173365719708</v>
+        <v>0.000106785047213717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H4">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I4">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J4">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>98.66536520796923</v>
+        <v>7.659571244477666</v>
       </c>
       <c r="R4">
-        <v>98.66536520796923</v>
+        <v>68.93614120029899</v>
       </c>
       <c r="S4">
-        <v>0.002298802609986477</v>
+        <v>0.0001542375382190419</v>
       </c>
       <c r="T4">
-        <v>0.002298802609986477</v>
+        <v>0.0001542375382190419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H5">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I5">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J5">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>132.3283599002346</v>
+        <v>9.703576975951002</v>
       </c>
       <c r="R5">
-        <v>132.3283599002346</v>
+        <v>87.33219278355899</v>
       </c>
       <c r="S5">
-        <v>0.003083116131711426</v>
+        <v>0.0001953968149024926</v>
       </c>
       <c r="T5">
-        <v>0.003083116131711426</v>
+        <v>0.0001953968149024926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H6">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I6">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J6">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>38.8691610246286</v>
+        <v>2.978534857300667</v>
       </c>
       <c r="R6">
-        <v>38.8691610246286</v>
+        <v>26.806813715706</v>
       </c>
       <c r="S6">
-        <v>0.0009056118996069337</v>
+        <v>5.99774934166029E-05</v>
       </c>
       <c r="T6">
-        <v>0.0009056118996069337</v>
+        <v>5.997749341660289E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="H7">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="I7">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="J7">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>32.65635080863222</v>
+        <v>2.433045005422445</v>
       </c>
       <c r="R7">
-        <v>32.65635080863222</v>
+        <v>21.897405048802</v>
       </c>
       <c r="S7">
-        <v>0.0007608597435714379</v>
+        <v>4.899319557645606E-05</v>
       </c>
       <c r="T7">
-        <v>0.0007608597435714379</v>
+        <v>4.899319557645606E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H8">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J8">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>2107.278654795246</v>
+        <v>223.5199247093677</v>
       </c>
       <c r="R8">
-        <v>2107.278654795246</v>
+        <v>2011.679322384309</v>
       </c>
       <c r="S8">
-        <v>0.04909744834371558</v>
+        <v>0.004500925943463751</v>
       </c>
       <c r="T8">
-        <v>0.04909744834371558</v>
+        <v>0.004500925943463751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H9">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J9">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>820.2625311827702</v>
+        <v>80.10393404391134</v>
       </c>
       <c r="R9">
-        <v>820.2625311827702</v>
+        <v>720.9354063952021</v>
       </c>
       <c r="S9">
-        <v>0.01911128229832735</v>
+        <v>0.00161301895292129</v>
       </c>
       <c r="T9">
-        <v>0.01911128229832735</v>
+        <v>0.00161301895292129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H10">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I10">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J10">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>1122.946377099587</v>
+        <v>115.7000339557497</v>
       </c>
       <c r="R10">
-        <v>1122.946377099587</v>
+        <v>1041.300305601747</v>
       </c>
       <c r="S10">
-        <v>0.02616350790482744</v>
+        <v>0.002329802522831853</v>
       </c>
       <c r="T10">
-        <v>0.02616350790482744</v>
+        <v>0.002329802522831853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H11">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I11">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J11">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>1506.077153054479</v>
+        <v>146.575330364503</v>
       </c>
       <c r="R11">
-        <v>1506.077153054479</v>
+        <v>1319.177973280527</v>
       </c>
       <c r="S11">
-        <v>0.03509006512047044</v>
+        <v>0.002951525274389612</v>
       </c>
       <c r="T11">
-        <v>0.03509006512047044</v>
+        <v>0.002951525274389612</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H12">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I12">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J12">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>442.3840469399257</v>
+        <v>44.99162852966867</v>
       </c>
       <c r="R12">
-        <v>442.3840469399257</v>
+        <v>404.9246567670181</v>
       </c>
       <c r="S12">
-        <v>0.01030709813497697</v>
+        <v>0.0009059773456490553</v>
       </c>
       <c r="T12">
-        <v>0.01030709813497697</v>
+        <v>0.0009059773456490553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="H13">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="I13">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="J13">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>371.6737960939993</v>
+        <v>36.75184690607845</v>
       </c>
       <c r="R13">
-        <v>371.6737960939993</v>
+        <v>330.7666221547061</v>
       </c>
       <c r="S13">
-        <v>0.008659621243214703</v>
+        <v>0.0007400563570556887</v>
       </c>
       <c r="T13">
-        <v>0.008659621243214703</v>
+        <v>0.0007400563570556888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H14">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I14">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J14">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>2069.697471144765</v>
+        <v>3522.204979605512</v>
       </c>
       <c r="R14">
-        <v>2069.697471144765</v>
+        <v>31699.84481644961</v>
       </c>
       <c r="S14">
-        <v>0.04822184500631337</v>
+        <v>0.07092514813396078</v>
       </c>
       <c r="T14">
-        <v>0.04822184500631337</v>
+        <v>0.07092514813396078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H15">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I15">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J15">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>805.63397849666</v>
+        <v>1262.269910578721</v>
       </c>
       <c r="R15">
-        <v>805.63397849666</v>
+        <v>11360.42919520849</v>
       </c>
       <c r="S15">
-        <v>0.0187704519063831</v>
+        <v>0.02541779394192561</v>
       </c>
       <c r="T15">
-        <v>0.0187704519063831</v>
+        <v>0.02541779394192562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H16">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I16">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J16">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>1102.919764135332</v>
+        <v>1823.189750396284</v>
       </c>
       <c r="R16">
-        <v>1102.919764135332</v>
+        <v>16408.70775356656</v>
       </c>
       <c r="S16">
-        <v>0.02569690820133087</v>
+        <v>0.03671279890634252</v>
       </c>
       <c r="T16">
-        <v>0.02569690820133087</v>
+        <v>0.03671279890634253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H17">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I17">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J17">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>1479.217790173383</v>
+        <v>2309.719633130938</v>
       </c>
       <c r="R17">
-        <v>1479.217790173383</v>
+        <v>20787.47669817844</v>
       </c>
       <c r="S17">
-        <v>0.03446426929674354</v>
+        <v>0.0465098448489721</v>
       </c>
       <c r="T17">
-        <v>0.03446426929674354</v>
+        <v>0.0465098448489721</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H18">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I18">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J18">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>434.4945748597809</v>
+        <v>708.9736552739586</v>
       </c>
       <c r="R18">
-        <v>434.4945748597809</v>
+        <v>6380.762897465628</v>
       </c>
       <c r="S18">
-        <v>0.01012328146363517</v>
+        <v>0.01427630186617163</v>
       </c>
       <c r="T18">
-        <v>0.01012328146363517</v>
+        <v>0.01427630186617162</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="H19">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="I19">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="J19">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>365.0453698261704</v>
+        <v>579.1319872293417</v>
       </c>
       <c r="R19">
-        <v>365.0453698261704</v>
+        <v>5212.187885064076</v>
       </c>
       <c r="S19">
-        <v>0.008505185656091804</v>
+        <v>0.01166173525424876</v>
       </c>
       <c r="T19">
-        <v>0.008505185656091804</v>
+        <v>0.01166173525424876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H20">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I20">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J20">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>9763.595268072431</v>
+        <v>2315.879169400133</v>
       </c>
       <c r="R20">
-        <v>9763.595268072431</v>
+        <v>20842.9125246012</v>
       </c>
       <c r="S20">
-        <v>0.2274818345605603</v>
+        <v>0.04663387681896215</v>
       </c>
       <c r="T20">
-        <v>0.2274818345605603</v>
+        <v>0.04663387681896214</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H21">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I21">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J21">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>3800.499449756625</v>
+        <v>829.9530007470593</v>
       </c>
       <c r="R21">
-        <v>3800.499449756625</v>
+        <v>7469.577006723534</v>
       </c>
       <c r="S21">
-        <v>0.08854776988801984</v>
+        <v>0.01671241164641227</v>
       </c>
       <c r="T21">
-        <v>0.08854776988801984</v>
+        <v>0.01671241164641226</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H22">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I22">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J22">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>5202.916049474212</v>
+        <v>1198.762476702728</v>
       </c>
       <c r="R22">
-        <v>5202.916049474212</v>
+        <v>10788.86229032455</v>
       </c>
       <c r="S22">
-        <v>0.121222649598076</v>
+        <v>0.02413897167537853</v>
       </c>
       <c r="T22">
-        <v>0.121222649598076</v>
+        <v>0.02413897167537853</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H23">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I23">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J23">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>6978.065160700592</v>
+        <v>1518.659935039201</v>
       </c>
       <c r="R23">
-        <v>6978.065160700592</v>
+        <v>13667.93941535281</v>
       </c>
       <c r="S23">
-        <v>0.1625818175431896</v>
+        <v>0.03058061114598454</v>
       </c>
       <c r="T23">
-        <v>0.1625818175431896</v>
+        <v>0.03058061114598454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H24">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I24">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J24">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>2049.685634856427</v>
+        <v>466.1560952328007</v>
       </c>
       <c r="R24">
-        <v>2049.685634856427</v>
+        <v>4195.404857095206</v>
       </c>
       <c r="S24">
-        <v>0.04775558958432933</v>
+        <v>0.009386787622916283</v>
       </c>
       <c r="T24">
-        <v>0.04775558958432933</v>
+        <v>0.00938678762291628</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="H25">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="I25">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="J25">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N25">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q25">
-        <v>1722.065806794066</v>
+        <v>380.7841148722557</v>
       </c>
       <c r="R25">
-        <v>1722.065806794066</v>
+        <v>3427.057033850302</v>
       </c>
       <c r="S25">
-        <v>0.04012238096805751</v>
+        <v>0.007667688255156202</v>
       </c>
       <c r="T25">
-        <v>0.04012238096805751</v>
+        <v>0.007667688255156202</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H26">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I26">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J26">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N26">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q26">
-        <v>71.49125955766849</v>
+        <v>10975.62876009468</v>
       </c>
       <c r="R26">
-        <v>71.49125955766849</v>
+        <v>98780.65884085213</v>
       </c>
       <c r="S26">
-        <v>0.001665673600011312</v>
+        <v>0.221011582284533</v>
       </c>
       <c r="T26">
-        <v>0.001665673600011312</v>
+        <v>0.221011582284533</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H27">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I27">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J27">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N27">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q27">
-        <v>27.8281191662882</v>
+        <v>3933.390025216996</v>
       </c>
       <c r="R27">
-        <v>27.8281191662882</v>
+        <v>35400.51022695297</v>
       </c>
       <c r="S27">
-        <v>0.0006483668593901988</v>
+        <v>0.07920500704033545</v>
       </c>
       <c r="T27">
-        <v>0.0006483668593901988</v>
+        <v>0.07920500704033544</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H28">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I28">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J28">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N28">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q28">
-        <v>38.09693166676649</v>
+        <v>5681.286005620405</v>
       </c>
       <c r="R28">
-        <v>38.09693166676649</v>
+        <v>51131.57405058365</v>
       </c>
       <c r="S28">
-        <v>0.0008876197413696454</v>
+        <v>0.1144016472275715</v>
       </c>
       <c r="T28">
-        <v>0.0008876197413696454</v>
+        <v>0.1144016472275715</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H29">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I29">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J29">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N29">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q29">
-        <v>51.09497617596953</v>
+        <v>7197.373628148846</v>
       </c>
       <c r="R29">
-        <v>51.09497617596953</v>
+        <v>64776.36265333961</v>
       </c>
       <c r="S29">
-        <v>0.001190460951955495</v>
+        <v>0.144930460807279</v>
       </c>
       <c r="T29">
-        <v>0.001190460951955495</v>
+        <v>0.144930460807279</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="H30">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="I30">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="J30">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N30">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q30">
-        <v>15.00826321757957</v>
+        <v>2209.250082272564</v>
       </c>
       <c r="R30">
-        <v>15.00826321757957</v>
+        <v>19883.25074045308</v>
       </c>
       <c r="S30">
-        <v>0.0003496772609437348</v>
+        <v>0.04448673210600484</v>
       </c>
       <c r="T30">
-        <v>0.0003496772609437348</v>
+        <v>0.04448673210600483</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>112.663142</v>
+      </c>
+      <c r="H31">
+        <v>337.989426</v>
+      </c>
+      <c r="I31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="J31">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N31">
+        <v>48.054242</v>
+      </c>
+      <c r="O31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q31">
+        <v>1804.647296716121</v>
+      </c>
+      <c r="R31">
+        <v>16241.82567044509</v>
+      </c>
+      <c r="S31">
+        <v>0.03633941737924583</v>
+      </c>
+      <c r="T31">
+        <v>0.03633941737924583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.689938</v>
+      </c>
+      <c r="I32">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J32">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>97.419871</v>
+      </c>
+      <c r="N32">
+        <v>292.259613</v>
+      </c>
+      <c r="O32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q32">
+        <v>87.351137652666</v>
+      </c>
+      <c r="R32">
+        <v>786.1602388739939</v>
+      </c>
+      <c r="S32">
+        <v>0.001758952818918341</v>
+      </c>
+      <c r="T32">
+        <v>0.001758952818918341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H33">
+        <v>2.689938</v>
+      </c>
+      <c r="I33">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J33">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>34.912838</v>
+      </c>
+      <c r="N33">
+        <v>104.738514</v>
+      </c>
+      <c r="O33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q33">
+        <v>31.304456541348</v>
+      </c>
+      <c r="R33">
+        <v>281.740108872132</v>
+      </c>
+      <c r="S33">
+        <v>0.0006303645671686363</v>
+      </c>
+      <c r="T33">
+        <v>0.0006303645671686363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H34">
+        <v>2.689938</v>
+      </c>
+      <c r="I34">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J34">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>50.427193</v>
+      </c>
+      <c r="N34">
+        <v>151.281579</v>
+      </c>
+      <c r="O34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q34">
+        <v>45.21534089467799</v>
+      </c>
+      <c r="R34">
+        <v>406.9380680521019</v>
+      </c>
+      <c r="S34">
+        <v>0.0009104821466812375</v>
+      </c>
+      <c r="T34">
+        <v>0.0009104821466812376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H35">
+        <v>2.689938</v>
+      </c>
+      <c r="I35">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J35">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>63.884013</v>
+      </c>
+      <c r="N35">
+        <v>191.652039</v>
+      </c>
+      <c r="O35">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P35">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q35">
+        <v>57.281344720398</v>
+      </c>
+      <c r="R35">
+        <v>515.532102483582</v>
+      </c>
+      <c r="S35">
+        <v>0.001153450149304406</v>
+      </c>
+      <c r="T35">
+        <v>0.001153450149304406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="H31">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="I31">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="J31">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N31">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O31">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P31">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q31">
-        <v>12.60935651147754</v>
-      </c>
-      <c r="R31">
-        <v>12.60935651147754</v>
-      </c>
-      <c r="S31">
-        <v>0.0002937851757578383</v>
-      </c>
-      <c r="T31">
-        <v>0.0002937851757578383</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H36">
+        <v>2.689938</v>
+      </c>
+      <c r="I36">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J36">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>19.609342</v>
+      </c>
+      <c r="N36">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P36">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q36">
+        <v>17.582638066932</v>
+      </c>
+      <c r="R36">
+        <v>158.243742602388</v>
+      </c>
+      <c r="S36">
+        <v>0.00035405412708906</v>
+      </c>
+      <c r="T36">
+        <v>0.0003540541270890599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.689938</v>
+      </c>
+      <c r="I37">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="J37">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N37">
+        <v>48.054242</v>
+      </c>
+      <c r="O37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q37">
+        <v>14.362547957444</v>
+      </c>
+      <c r="R37">
+        <v>129.262931616996</v>
+      </c>
+      <c r="S37">
+        <v>0.0002892125379871907</v>
+      </c>
+      <c r="T37">
+        <v>0.0002892125379871907</v>
       </c>
     </row>
   </sheetData>
